--- a/assets/spreadsheets/examples/getSkuSpecifications.xlsx
+++ b/assets/spreadsheets/examples/getSkuSpecifications.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheuscosta\Documents\dev\runner\assets\spreadsheets\examples\criador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheuscosta\Documents\vtex-runner\assets\spreadsheets\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE17A96-CA0F-4A71-BF46-38B4E760BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261BB2A2-7016-4A0E-9CE8-F241F023B190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FDB39612-B4BC-4A9E-9400-65E173B8CD58}"/>
   </bookViews>
@@ -63,8 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,19 +382,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>26105</v>
+      <c r="A2">
+        <v>11231</v>
       </c>
     </row>
   </sheetData>
